--- a/tmp/result/rank.xlsx
+++ b/tmp/result/rank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="track1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="172">
   <si>
     <t>6080083d2c6a21cb90c7e4ef</t>
   </si>
@@ -203,9 +203,6 @@
   <si>
     <t xml:space="preserve">Report </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silver_Bullet</t>
   </si>
   <si>
     <t>Liwei Jin (liwei.jin97@gmail.com); Haoyue Cheng(161220023@smail.nju.edu.cn)</t>
@@ -598,9 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Micro Genius</t>
-  </si>
-  <si>
     <t>YiqingHuang huang-yq17@mails.tsinghua.edu.cn Tsinghua University
 HongweiXue gh051120@mail.ustc.edu.cn University of Science and Technology of China</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +625,18 @@
   </si>
   <si>
     <t>tsinghua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro Genius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver_Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1105,60 +1111,60 @@
         <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" t="s">
         <v>141</v>
-      </c>
-      <c r="T1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>3</v>
@@ -1200,19 +1206,19 @@
         <v>3</v>
       </c>
       <c r="T2" s="13">
-        <f>P2+Q2+R2+S2</f>
+        <f t="shared" ref="T2:T33" si="0">P2+Q2+R2+S2</f>
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="E3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1">
         <v>0.78288484001040104</v>
@@ -1251,19 +1257,19 @@
         <v>9</v>
       </c>
       <c r="T3">
-        <f>P3+Q3+R3+S3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="E4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1">
         <v>0.75904954787914602</v>
@@ -1302,19 +1308,19 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <f>P4+Q4+R4+S4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="E5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1">
         <v>0.757500576967437</v>
@@ -1353,19 +1359,19 @@
         <v>5</v>
       </c>
       <c r="T5">
-        <f>P5+Q5+R5+S5</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="E6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="1">
         <v>0.78203495305228998</v>
@@ -1404,19 +1410,19 @@
         <v>17</v>
       </c>
       <c r="T6">
-        <f>P6+Q6+R6+S6</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="E7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="1">
         <v>0.78204527475720298</v>
@@ -1455,16 +1461,16 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <f>P7+Q7+R7+S7</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="E8" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>3</v>
@@ -1506,16 +1512,16 @@
         <v>21</v>
       </c>
       <c r="T8">
-        <f>P8+Q8+R8+S8</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="E9" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>3</v>
@@ -1557,19 +1563,19 @@
         <v>6</v>
       </c>
       <c r="T9">
-        <f>P9+Q9+R9+S9</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="E10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1">
         <v>0.78021320164970998</v>
@@ -1608,19 +1614,19 @@
         <v>23</v>
       </c>
       <c r="T10">
-        <f>P10+Q10+R10+S10</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="E11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1">
         <v>0.74049760026477796</v>
@@ -1659,28 +1665,31 @@
         <v>4</v>
       </c>
       <c r="T11">
-        <f>P11+Q11+R11+S11</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="71.25">
       <c r="A12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>148</v>
+      <c r="D12" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="13">
         <v>0.73593708043144401</v>
@@ -1719,19 +1728,19 @@
         <v>10</v>
       </c>
       <c r="T12" s="13">
-        <f>P12+Q12+R12+S12</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1">
         <v>0.72064833606714895</v>
@@ -1770,19 +1779,19 @@
         <v>2</v>
       </c>
       <c r="T13">
-        <f>P13+Q13+R13+S13</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="E14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1">
         <v>0.740495724520431</v>
@@ -1821,19 +1830,19 @@
         <v>13</v>
       </c>
       <c r="T14">
-        <f>P14+Q14+R14+S14</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="E15" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1">
         <v>0.76583116717885402</v>
@@ -1872,19 +1881,19 @@
         <v>33</v>
       </c>
       <c r="T15">
-        <f>P15+Q15+R15+S15</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="E16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1">
         <v>0.76282339550898803</v>
@@ -1923,16 +1932,16 @@
         <v>34</v>
       </c>
       <c r="T16">
-        <f>P16+Q16+R16+S16</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="E17" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>3</v>
@@ -1974,19 +1983,19 @@
         <v>32</v>
       </c>
       <c r="T17">
-        <f>P17+Q17+R17+S17</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="E18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1">
         <v>0.73742785341468797</v>
@@ -2025,16 +2034,16 @@
         <v>8</v>
       </c>
       <c r="T18">
-        <f>P18+Q18+R18+S18</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="E19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>3</v>
@@ -2076,16 +2085,16 @@
         <v>11</v>
       </c>
       <c r="T19">
-        <f>P19+Q19+R19+S19</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="E20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>3</v>
@@ -2127,19 +2136,19 @@
         <v>12</v>
       </c>
       <c r="T20">
-        <f>P20+Q20+R20+S20</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="E21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1">
         <v>0.75899743021793198</v>
@@ -2178,19 +2187,19 @@
         <v>36</v>
       </c>
       <c r="T21">
-        <f>P21+Q21+R21+S21</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="E22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="1">
         <v>0.73126991664367402</v>
@@ -2229,19 +2238,19 @@
         <v>15</v>
       </c>
       <c r="T22">
-        <f>P22+Q22+R22+S22</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4">
         <v>0.72900098490021903</v>
@@ -2280,19 +2289,19 @@
         <v>16</v>
       </c>
       <c r="T23">
-        <f>P23+Q23+R23+S23</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="E24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
         <v>0.72773476791241698</v>
@@ -2331,16 +2340,16 @@
         <v>27</v>
       </c>
       <c r="T24">
-        <f>P24+Q24+R24+S24</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="E25" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>3</v>
@@ -2382,19 +2391,19 @@
         <v>35</v>
       </c>
       <c r="T25">
-        <f>P25+Q25+R25+S25</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="E26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1">
         <v>0.71340588880450195</v>
@@ -2433,19 +2442,19 @@
         <v>7</v>
       </c>
       <c r="T26">
-        <f>P26+Q26+R26+S26</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="E27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="8">
         <v>0.72513446386306302</v>
@@ -2484,16 +2493,16 @@
         <v>26</v>
       </c>
       <c r="T27">
-        <f>P27+Q27+R27+S27</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="E28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>3</v>
@@ -2535,19 +2544,19 @@
         <v>28</v>
       </c>
       <c r="T28">
-        <f>P28+Q28+R28+S28</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="4">
         <v>0.724711030421334</v>
@@ -2586,28 +2595,31 @@
         <v>31</v>
       </c>
       <c r="T29">
-        <f>P29+Q29+R29+S29</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="85.5">
       <c r="A30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>152</v>
+      <c r="D30" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="13">
         <v>0.71299296494145104</v>
@@ -2646,19 +2658,19 @@
         <v>14</v>
       </c>
       <c r="T30" s="13">
-        <f>P30+Q30+R30+S30</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="E31" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="1">
         <v>0.74949701392998402</v>
@@ -2697,19 +2709,19 @@
         <v>39</v>
       </c>
       <c r="T31">
-        <f>P31+Q31+R31+S31</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="E32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="8">
         <v>0.70943356006023395</v>
@@ -2748,16 +2760,16 @@
         <v>37</v>
       </c>
       <c r="T32">
-        <f>P32+Q32+R32+S32</f>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="E33" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>3</v>
@@ -2799,19 +2811,19 @@
         <v>41</v>
       </c>
       <c r="T33">
-        <f>P33+Q33+R33+S33</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="E34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="1">
         <v>0.69899634471220096</v>
@@ -2850,16 +2862,16 @@
         <v>29</v>
       </c>
       <c r="T34">
-        <f>P34+Q34+R34+S34</f>
+        <f t="shared" ref="T34:T65" si="1">P34+Q34+R34+S34</f>
         <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="E35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>3</v>
@@ -2901,79 +2913,79 @@
         <v>47</v>
       </c>
       <c r="T35">
-        <f>P35+Q35+R35+S35</f>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="85.5">
       <c r="A36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="C36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="H36" s="15">
         <v>0.69094663987495197</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="15">
         <v>0.47687665951953301</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="15">
         <v>0.309470084182637</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="15">
         <v>0.19345526636472599</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="15">
         <v>0.199311575691035</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="15">
         <v>0.288453461952838</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="15">
         <v>0.43115389209534499</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="15">
         <v>7.2446164567763593E-2</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="15">
         <v>83</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="15">
         <v>16</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="15">
         <v>33</v>
       </c>
-      <c r="S36" s="13">
+      <c r="S36" s="15">
         <v>19</v>
       </c>
-      <c r="T36" s="13">
-        <f>P36+Q36+R36+S36</f>
+      <c r="T36" s="15">
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="E37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="1">
         <v>0.69094663987495197</v>
@@ -3012,19 +3024,19 @@
         <v>20</v>
       </c>
       <c r="T37">
-        <f>P37+Q37+R37+S37</f>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="E38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="4">
         <v>0.71190547751956801</v>
@@ -3063,28 +3075,28 @@
         <v>40</v>
       </c>
       <c r="T38">
-        <f>P38+Q38+R38+S38</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="13">
         <v>0.72727649673310901</v>
@@ -3123,16 +3135,16 @@
         <v>42</v>
       </c>
       <c r="T39" s="13">
-        <f>P39+Q39+R39+S39</f>
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>3</v>
@@ -3174,19 +3186,19 @@
         <v>45</v>
       </c>
       <c r="T40">
-        <f>P40+Q40+R40+S40</f>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="E41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="8">
         <v>0.69423317695219899</v>
@@ -3225,16 +3237,16 @@
         <v>48</v>
       </c>
       <c r="T41">
-        <f>P41+Q41+R41+S41</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="E42" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>3</v>
@@ -3276,19 +3288,19 @@
         <v>24</v>
       </c>
       <c r="T42">
-        <f>P42+Q42+R42+S42</f>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="E43" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="1">
         <v>0.71752395217000298</v>
@@ -3327,16 +3339,16 @@
         <v>44</v>
       </c>
       <c r="T43">
-        <f>P43+Q43+R43+S43</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="E44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>3</v>
@@ -3378,19 +3390,19 @@
         <v>18</v>
       </c>
       <c r="T44">
-        <f>P44+Q44+R44+S44</f>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="E45" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="1">
         <v>0.71596036666242802</v>
@@ -3429,16 +3441,16 @@
         <v>46</v>
       </c>
       <c r="T45">
-        <f>P45+Q45+R45+S45</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="E46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>3</v>
@@ -3480,16 +3492,16 @@
         <v>51</v>
       </c>
       <c r="T46">
-        <f>P46+Q46+R46+S46</f>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="E47" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>3</v>
@@ -3531,19 +3543,19 @@
         <v>49</v>
       </c>
       <c r="T47">
-        <f>P47+Q47+R47+S47</f>
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="E48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="4">
         <v>0.68172688362136902</v>
@@ -3582,16 +3594,16 @@
         <v>52</v>
       </c>
       <c r="T48">
-        <f>P48+Q48+R48+S48</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="E49" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>3</v>
@@ -3633,19 +3645,19 @@
         <v>50</v>
       </c>
       <c r="T49">
-        <f>P49+Q49+R49+S49</f>
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="E50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="4">
         <v>0.67563403144120104</v>
@@ -3684,19 +3696,19 @@
         <v>55</v>
       </c>
       <c r="T50">
-        <f>P50+Q50+R50+S50</f>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="E51" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="1">
         <v>0.70095144403857901</v>
@@ -3735,16 +3747,16 @@
         <v>43</v>
       </c>
       <c r="T51">
-        <f>P51+Q51+R51+S51</f>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="E52" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>3</v>
@@ -3786,19 +3798,19 @@
         <v>53</v>
       </c>
       <c r="T52">
-        <f>P52+Q52+R52+S52</f>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="E53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G53" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="1">
         <v>0.70227079277531101</v>
@@ -3837,19 +3849,19 @@
         <v>38</v>
       </c>
       <c r="T53">
-        <f>P53+Q53+R53+S53</f>
+        <f t="shared" si="1"/>
         <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="E54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" s="4">
         <v>0.68007084240411697</v>
@@ -3888,19 +3900,19 @@
         <v>56</v>
       </c>
       <c r="T54">
-        <f>P54+Q54+R54+S54</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="E55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="H55" s="1">
         <v>0.70329100095587305</v>
@@ -3939,16 +3951,16 @@
         <v>30</v>
       </c>
       <c r="T55">
-        <f>P55+Q55+R55+S55</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="E56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>3</v>
@@ -3990,19 +4002,19 @@
         <v>54</v>
       </c>
       <c r="T56">
-        <f>P56+Q56+R56+S56</f>
+        <f t="shared" si="1"/>
         <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="E57" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="1">
         <v>0.68678704579634098</v>
@@ -4041,16 +4053,16 @@
         <v>57</v>
       </c>
       <c r="T57">
-        <f>P57+Q57+R57+S57</f>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="E58" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>3</v>
@@ -4092,16 +4104,16 @@
         <v>25</v>
       </c>
       <c r="T58">
-        <f>P58+Q58+R58+S58</f>
+        <f t="shared" si="1"/>
         <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="E59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>3</v>
@@ -4143,19 +4155,19 @@
         <v>59</v>
       </c>
       <c r="T59">
-        <f>P59+Q59+R59+S59</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="E60" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G60" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H60" s="1">
         <v>0.68680314932790498</v>
@@ -4194,16 +4206,16 @@
         <v>58</v>
       </c>
       <c r="T60">
-        <f>P60+Q60+R60+S60</f>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="E61" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>3</v>
@@ -4245,7 +4257,7 @@
         <v>60</v>
       </c>
       <c r="T61" s="15">
-        <f>P61+Q61+R61+S61</f>
+        <f t="shared" si="1"/>
         <v>237</v>
       </c>
       <c r="U61" s="15"/>
@@ -4255,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H62" s="8">
         <v>0.69057227511219899</v>
@@ -4297,25 +4309,28 @@
         <v>62</v>
       </c>
       <c r="T62">
-        <f>P62+Q62+R62+S62</f>
+        <f t="shared" si="1"/>
         <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="42.75">
       <c r="A63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>164</v>
+      <c r="D63" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>3</v>
@@ -4357,7 +4372,7 @@
         <v>65</v>
       </c>
       <c r="T63" s="13">
-        <f>P63+Q63+R63+S63</f>
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
     </row>
@@ -4366,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="8">
         <v>0.689505441922314</v>
@@ -4408,19 +4423,19 @@
         <v>63</v>
       </c>
       <c r="T64">
-        <f>P64+Q64+R64+S64</f>
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="E65" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1">
         <v>0.65804818095570405</v>
@@ -4459,19 +4474,19 @@
         <v>67</v>
       </c>
       <c r="T65">
-        <f>P65+Q65+R65+S65</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="E66" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H66" s="1">
         <v>0.65913012127749204</v>
@@ -4510,19 +4525,19 @@
         <v>72</v>
       </c>
       <c r="T66">
-        <f>P66+Q66+R66+S66</f>
+        <f t="shared" ref="T66:T97" si="2">P66+Q66+R66+S66</f>
         <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="E67" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="1">
         <v>0.70512391958324405</v>
@@ -4561,19 +4576,19 @@
         <v>68</v>
       </c>
       <c r="T67">
-        <f>P67+Q67+R67+S67</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="E68" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="1">
         <v>0.70124010898882305</v>
@@ -4612,19 +4627,19 @@
         <v>69</v>
       </c>
       <c r="T68">
-        <f>P68+Q68+R68+S68</f>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="E69" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="4">
         <v>0.61341537675836999</v>
@@ -4663,25 +4678,25 @@
         <v>71</v>
       </c>
       <c r="T69">
-        <f>P69+Q69+R69+S69</f>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>3</v>
@@ -4723,16 +4738,16 @@
         <v>70</v>
       </c>
       <c r="T70" s="13">
-        <f>P70+Q70+R70+S70</f>
+        <f t="shared" si="2"/>
         <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="E71" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>3</v>
@@ -4774,19 +4789,19 @@
         <v>73</v>
       </c>
       <c r="T71">
-        <f>P71+Q71+R71+S71</f>
+        <f t="shared" si="2"/>
         <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="E72" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" s="1">
         <v>0.68594891693046001</v>
@@ -4825,16 +4840,16 @@
         <v>74</v>
       </c>
       <c r="T72">
-        <f>P72+Q72+R72+S72</f>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="E73" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>3</v>
@@ -4876,16 +4891,16 @@
         <v>75</v>
       </c>
       <c r="T73">
-        <f>P73+Q73+R73+S73</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="E74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>3</v>
@@ -4927,16 +4942,16 @@
         <v>61</v>
       </c>
       <c r="T74">
-        <f>P74+Q74+R74+S74</f>
+        <f t="shared" si="2"/>
         <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="E75" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>3</v>
@@ -4978,19 +4993,19 @@
         <v>76</v>
       </c>
       <c r="T75">
-        <f>P75+Q75+R75+S75</f>
+        <f t="shared" si="2"/>
         <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="E76" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G76" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H76" s="1">
         <v>0.68796441189909396</v>
@@ -5029,19 +5044,19 @@
         <v>64</v>
       </c>
       <c r="T76">
-        <f>P76+Q76+R76+S76</f>
+        <f t="shared" si="2"/>
         <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="E77" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H77" s="1">
         <v>0.68844853132777895</v>
@@ -5080,19 +5095,19 @@
         <v>78</v>
       </c>
       <c r="T77">
-        <f>P77+Q77+R77+S77</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="E78" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H78" s="1">
         <v>0.683626138792094</v>
@@ -5131,19 +5146,19 @@
         <v>79</v>
       </c>
       <c r="T78">
-        <f>P78+Q78+R78+S78</f>
+        <f t="shared" si="2"/>
         <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="E79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="G79" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" s="1">
         <v>0.687665320681486</v>
@@ -5182,19 +5197,19 @@
         <v>66</v>
       </c>
       <c r="T79">
-        <f>P79+Q79+R79+S79</f>
+        <f t="shared" si="2"/>
         <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="E80" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="H80" s="1">
         <v>0.63917198938079101</v>
@@ -5233,16 +5248,16 @@
         <v>80</v>
       </c>
       <c r="T80">
-        <f>P80+Q80+R80+S80</f>
+        <f t="shared" si="2"/>
         <v>311</v>
       </c>
     </row>
     <row r="81" spans="5:20">
       <c r="E81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>3</v>
@@ -5284,16 +5299,16 @@
         <v>77</v>
       </c>
       <c r="T81">
-        <f>P81+Q81+R81+S81</f>
+        <f t="shared" si="2"/>
         <v>314</v>
       </c>
     </row>
     <row r="82" spans="5:20">
       <c r="E82" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>3</v>
@@ -5335,19 +5350,19 @@
         <v>81</v>
       </c>
       <c r="T82">
-        <f>P82+Q82+R82+S82</f>
+        <f t="shared" si="2"/>
         <v>315</v>
       </c>
     </row>
     <row r="83" spans="5:20">
       <c r="E83" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" s="1">
         <v>0.67404351325458201</v>
@@ -5386,19 +5401,19 @@
         <v>82</v>
       </c>
       <c r="T83">
-        <f>P83+Q83+R83+S83</f>
+        <f t="shared" si="2"/>
         <v>317</v>
       </c>
     </row>
     <row r="84" spans="5:20">
       <c r="E84" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H84" s="1">
         <v>0.68141647928831195</v>
@@ -5437,19 +5452,19 @@
         <v>85</v>
       </c>
       <c r="T84">
-        <f>P84+Q84+R84+S84</f>
+        <f t="shared" si="2"/>
         <v>318</v>
       </c>
     </row>
     <row r="85" spans="5:20">
       <c r="E85" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H85" s="1">
         <v>0.67640559025908398</v>
@@ -5488,19 +5503,19 @@
         <v>86</v>
       </c>
       <c r="T85">
-        <f>P85+Q85+R85+S85</f>
+        <f t="shared" si="2"/>
         <v>328</v>
       </c>
     </row>
     <row r="86" spans="5:20">
       <c r="E86" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86" s="1">
         <v>0.62555474615409101</v>
@@ -5539,19 +5554,19 @@
         <v>83</v>
       </c>
       <c r="T86">
-        <f>P86+Q86+R86+S86</f>
+        <f t="shared" si="2"/>
         <v>337</v>
       </c>
     </row>
     <row r="87" spans="5:20">
       <c r="E87" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" s="1">
         <v>0.62555474615409101</v>
@@ -5590,19 +5605,19 @@
         <v>84</v>
       </c>
       <c r="T87">
-        <f>P87+Q87+R87+S87</f>
+        <f t="shared" si="2"/>
         <v>341</v>
       </c>
     </row>
     <row r="88" spans="5:20">
       <c r="E88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G88" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H88" s="4">
         <v>0.61929090823724697</v>
@@ -5641,19 +5656,19 @@
         <v>93</v>
       </c>
       <c r="T88">
-        <f>P88+Q88+R88+S88</f>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
     </row>
     <row r="89" spans="5:20">
       <c r="E89" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H89" s="4">
         <v>0.615897621384772</v>
@@ -5692,16 +5707,16 @@
         <v>92</v>
       </c>
       <c r="T89">
-        <f>P89+Q89+R89+S89</f>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
     </row>
     <row r="90" spans="5:20">
       <c r="E90" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>3</v>
@@ -5743,19 +5758,19 @@
         <v>95</v>
       </c>
       <c r="T90">
-        <f>P90+Q90+R90+S90</f>
+        <f t="shared" si="2"/>
         <v>347</v>
       </c>
     </row>
     <row r="91" spans="5:20">
       <c r="E91" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="H91" s="1">
         <v>0.63719323254266302</v>
@@ -5794,19 +5809,19 @@
         <v>96</v>
       </c>
       <c r="T91">
-        <f>P91+Q91+R91+S91</f>
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
     </row>
     <row r="92" spans="5:20">
       <c r="E92" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H92" s="1">
         <v>0.68265461927090099</v>
@@ -5845,16 +5860,16 @@
         <v>90</v>
       </c>
       <c r="T92">
-        <f>P92+Q92+R92+S92</f>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
     </row>
     <row r="93" spans="5:20">
       <c r="E93" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>3</v>
@@ -5896,19 +5911,19 @@
         <v>88</v>
       </c>
       <c r="T93">
-        <f>P93+Q93+R93+S93</f>
+        <f t="shared" si="2"/>
         <v>355</v>
       </c>
     </row>
     <row r="94" spans="5:20">
       <c r="E94" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H94" s="1">
         <v>0.63882113164417997</v>
@@ -5947,19 +5962,19 @@
         <v>94</v>
       </c>
       <c r="T94">
-        <f>P94+Q94+R94+S94</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
     <row r="95" spans="5:20">
       <c r="E95" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H95" s="1">
         <v>0.68135917402613899</v>
@@ -5998,19 +6013,19 @@
         <v>91</v>
       </c>
       <c r="T95">
-        <f>P95+Q95+R95+S95</f>
+        <f t="shared" si="2"/>
         <v>364</v>
       </c>
     </row>
     <row r="96" spans="5:20">
       <c r="E96" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H96" s="1">
         <v>0.57106106374140497</v>
@@ -6049,19 +6064,19 @@
         <v>99</v>
       </c>
       <c r="T96">
-        <f>P96+Q96+R96+S96</f>
+        <f t="shared" si="2"/>
         <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="E97" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="H97" s="1">
         <v>0.63155416222678395</v>
@@ -6100,19 +6115,19 @@
         <v>97</v>
       </c>
       <c r="T97">
-        <f>P97+Q97+R97+S97</f>
+        <f t="shared" si="2"/>
         <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="E98" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G98" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H98" s="1">
         <v>0.62420038903826403</v>
@@ -6151,19 +6166,19 @@
         <v>100</v>
       </c>
       <c r="T98">
-        <f>P98+Q98+R98+S98</f>
+        <f t="shared" ref="T98:T129" si="3">P98+Q98+R98+S98</f>
         <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="E99" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H99" s="1">
         <v>0.62345953506377705</v>
@@ -6202,19 +6217,19 @@
         <v>98</v>
       </c>
       <c r="T99">
-        <f>P99+Q99+R99+S99</f>
+        <f t="shared" si="3"/>
         <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="E100" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H100" s="1">
         <v>0.59988611750504495</v>
@@ -6253,19 +6268,19 @@
         <v>102</v>
       </c>
       <c r="T100">
-        <f>P100+Q100+R100+S100</f>
+        <f t="shared" si="3"/>
         <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="E101" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H101" s="1">
         <v>0.60857570803153704</v>
@@ -6304,28 +6319,28 @@
         <v>101</v>
       </c>
       <c r="T101">
-        <f>P101+Q101+R101+S101</f>
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E102" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H102" s="13">
         <v>0.52499487489713303</v>
@@ -6364,19 +6379,19 @@
         <v>87</v>
       </c>
       <c r="T102" s="13">
-        <f>P102+Q102+R102+S102</f>
+        <f t="shared" si="3"/>
         <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="E103" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="H103" s="1">
         <v>0.60864943705823904</v>
@@ -6415,16 +6430,16 @@
         <v>103</v>
       </c>
       <c r="T103">
-        <f>P103+Q103+R103+S103</f>
+        <f t="shared" si="3"/>
         <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:20">
       <c r="E104" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>3</v>
@@ -6466,19 +6481,19 @@
         <v>89</v>
       </c>
       <c r="T104">
-        <f>P104+Q104+R104+S104</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="E105" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H105" s="1">
         <v>0.58203617466575297</v>
@@ -6517,19 +6532,19 @@
         <v>104</v>
       </c>
       <c r="T105">
-        <f>P105+Q105+R105+S105</f>
+        <f t="shared" si="3"/>
         <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="E106" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="H106" s="1">
         <v>0.47554188611437997</v>
@@ -6568,7 +6583,7 @@
         <v>106</v>
       </c>
       <c r="T106">
-        <f>P106+Q106+R106+S106</f>
+        <f t="shared" si="3"/>
         <v>419</v>
       </c>
     </row>
@@ -6577,7 +6592,7 @@
         <v>2</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>3</v>
@@ -6619,7 +6634,7 @@
         <v>105</v>
       </c>
       <c r="T107">
-        <f>P107+Q107+R107+S107</f>
+        <f t="shared" si="3"/>
         <v>424</v>
       </c>
     </row>
@@ -6628,10 +6643,10 @@
         <v>2</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H108" s="1">
         <v>0.41248637283821299</v>
@@ -6670,19 +6685,19 @@
         <v>107</v>
       </c>
       <c r="T108">
-        <f>P108+Q108+R108+S108</f>
+        <f t="shared" si="3"/>
         <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="E109" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="G109" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H109" s="1">
         <v>0.38570517531745901</v>
@@ -6721,7 +6736,7 @@
         <v>108</v>
       </c>
       <c r="T109">
-        <f>P109+Q109+R109+S109</f>
+        <f t="shared" si="3"/>
         <v>432</v>
       </c>
     </row>
@@ -7104,8 +7119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7161,16 +7176,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>4</v>
@@ -7187,13 +7202,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>12</v>
@@ -7350,13 +7365,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>2</v>
@@ -7443,16 +7458,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>10</v>

--- a/tmp/result/rank.xlsx
+++ b/tmp/result/rank.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="track1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="173">
   <si>
     <t>6080083d2c6a21cb90c7e4ef</t>
   </si>
@@ -637,6 +637,10 @@
   </si>
   <si>
     <t>Silver_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1160,6 +1164,9 @@
       <c r="C2" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>117</v>
       </c>
@@ -3089,6 +3096,9 @@
       <c r="C39" s="3" t="s">
         <v>158</v>
       </c>
+      <c r="D39" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E39" s="9" t="s">
         <v>155</v>
       </c>
@@ -6166,7 +6176,7 @@
         <v>100</v>
       </c>
       <c r="T98">
-        <f t="shared" ref="T98:T129" si="3">P98+Q98+R98+S98</f>
+        <f t="shared" ref="T98:T109" si="3">P98+Q98+R98+S98</f>
         <v>381</v>
       </c>
     </row>
@@ -7119,8 +7129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
